--- a/pred_ohlcv/54_21/2019-10-26 PIVX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 PIVX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>28791.02883541</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>32127.77113541</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>27011.69073541</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>27011.69073541</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>32313.46603541001</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>32313.46603541001</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -756,7 +756,7 @@
         <v>60219.46503541</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>64243.32908813</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>77506.75103540999</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>77506.75103540999</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>74461.20683540999</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>56882.57553540999</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>55514.93833540999</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>55514.93833540999</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>55514.93833540999</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>55514.93833540999</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>33414.02463540999</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>33415.02463540999</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>33326.48103541</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>28575.04233541</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>13275.83623541</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>15856.98323541</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>15356.98323541</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>13195.00693541</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>13195.00693541</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>41135.73523541</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>41135.73523541</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>40654.48523541</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>40654.48523541</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>40654.48523541</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>43085.23523541</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>111941.99228122</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>111001.40378122</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>111001.40378122</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>120505.36831455</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>118727.66831455</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>113772.94121455</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>124335.80501455</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>122913.55871455</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>116991.93091455</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>116991.93091455</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>116992.93091455</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>116992.93091455</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>116993.93091455</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>116993.93091455</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>116993.93091455</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>120958.51401455</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>121258.51401455</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>118258.12711455</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>118259.12711455</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>117125.28241455</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>114854.85801455</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>115056.85801455</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>114694.22101455</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>114695.22101455</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>114333.58401455</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>114333.58401455</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>110746.58401455</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>121733.31081455</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>121441.44081455</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>120655.86761455</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>120365.86761455</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>120366.86761455</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>119380.86761455</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>150093.05651455</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>149324.92741455</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>144318.04601455</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>144318.04601455</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>144319.04601455</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>136852.68721455</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>135103.68721455</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>121937.68721455</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>121937.68721455</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>121937.68721455</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>78181.91001454997</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>78481.91001454997</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>76881.91001454997</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>76881.91001454997</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>78472.56981454996</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>86263.68721454997</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>85046.68731454997</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>10733.48469042997</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>10051.61439042997</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>10987.90739042997</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>10987.90739042997</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>10708.90739042997</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>66.10829042996738</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>6424.903190429967</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-26 PIVX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 PIVX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>28791.02883541</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>32127.77113541</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>27011.69073541</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>27011.69073541</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>32313.46603541001</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>32313.46603541001</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -756,7 +756,7 @@
         <v>60219.46503541</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>64243.32908813</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>77506.75103540999</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>77506.75103540999</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>74461.20683540999</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>56882.57553540999</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>55514.93833540999</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>55514.93833540999</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>55514.93833540999</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>55514.93833540999</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>33414.02463540999</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>33415.02463540999</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>33326.48103541</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>28575.04233541</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>13275.83623541</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>15856.98323541</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>15356.98323541</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>13195.00693541</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>13195.00693541</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>41135.73523541</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>41135.73523541</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>40654.48523541</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>40654.48523541</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>40654.48523541</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>43085.23523541</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>131565.31903285</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>127216.37903285</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>131467.11588122</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>111941.99228122</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>111001.40378122</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>111001.40378122</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>116991.93091455</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>116991.93091455</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>116992.93091455</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>116992.93091455</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>116993.93091455</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>116993.93091455</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>116993.93091455</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>120958.51401455</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>121258.51401455</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>118258.12711455</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>118259.12711455</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>117125.28241455</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>114854.85801455</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>114694.22101455</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>114333.58401455</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>120366.86761455</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>119380.86761455</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>104190.10341455</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>149324.92741455</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>144318.04601455</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>136852.68721455</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>121937.68721455</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>78181.91001454997</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>78481.91001454997</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>76881.91001454997</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>76881.91001454997</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>78472.56981454996</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>86263.68721454997</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>85046.68731454997</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>10733.48469042997</v>
       </c>
       <c r="H525">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>10051.61439042997</v>
       </c>
       <c r="H526">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>10987.90739042997</v>
       </c>
       <c r="H527">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>10987.90739042997</v>
       </c>
       <c r="H528">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>10708.90739042997</v>
       </c>
       <c r="H530">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>66.10829042996738</v>
       </c>
       <c r="H531">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>6424.903190429967</v>
       </c>
       <c r="H532">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
